--- a/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
     </row>

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44050</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -687,7 +688,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -724,7 +725,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -777,7 +778,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -810,7 +811,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -843,7 +844,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -880,7 +881,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -917,7 +918,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -970,7 +971,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44050</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1003,7 +1004,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1036,7 +1037,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1069,7 +1070,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,7 +1107,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,7 +1144,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1196,7 +1197,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44050</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1229,7 +1230,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1262,7 +1263,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1295,7 +1296,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1332,7 +1333,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1369,7 +1370,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1422,7 +1423,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1455,7 +1456,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1488,7 +1489,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1525,7 +1526,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1562,7 +1563,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1615,7 +1616,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1648,7 +1649,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1681,7 +1682,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1718,7 +1719,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1755,7 +1756,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1808,7 +1809,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1841,7 +1842,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1874,7 +1875,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1911,7 +1912,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1948,7 +1949,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2001,7 +2002,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2034,7 +2035,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2067,7 +2068,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2104,7 +2105,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2141,7 +2142,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2194,7 +2195,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2227,7 +2228,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2260,7 +2261,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2297,7 +2298,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2334,7 +2335,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2387,7 +2388,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2420,7 +2421,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2453,7 +2454,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2490,7 +2491,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2527,7 +2528,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2580,7 +2581,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2613,7 +2614,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2646,7 +2647,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2683,7 +2684,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -2720,7 +2721,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2773,7 +2774,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2806,7 +2807,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2839,7 +2840,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2876,7 +2877,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2913,7 +2914,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2966,7 +2967,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2999,7 +3000,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3032,7 +3033,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3069,7 +3070,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3106,7 +3107,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3159,7 +3160,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3192,7 +3193,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3225,7 +3226,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3262,7 +3263,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3299,7 +3300,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3352,7 +3353,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3385,7 +3386,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3418,7 +3419,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3451,7 +3452,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3484,7 +3485,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3521,7 +3522,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3558,7 +3559,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3611,7 +3612,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3644,7 +3645,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3677,7 +3678,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3710,7 +3711,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3743,7 +3744,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3780,7 +3781,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3817,7 +3818,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3870,7 +3871,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3903,7 +3904,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3936,7 +3937,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3969,7 +3970,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4002,7 +4003,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4039,7 +4040,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4076,7 +4077,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -4129,7 +4130,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4162,7 +4163,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4195,7 +4196,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4228,7 +4229,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4261,7 +4262,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4298,7 +4299,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4335,7 +4336,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4388,7 +4389,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4421,7 +4422,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4454,7 +4455,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4487,7 +4488,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4520,7 +4521,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4557,7 +4558,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4594,7 +4595,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4647,7 +4648,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4680,7 +4681,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4713,7 +4714,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4746,7 +4747,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4779,7 +4780,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -4816,7 +4817,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -4853,7 +4854,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -4906,7 +4907,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4939,7 +4940,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4972,7 +4973,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5005,7 +5006,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5038,7 +5039,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5075,7 +5076,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5112,7 +5113,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C123" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44050</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -688,7 +687,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -725,7 +724,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -778,7 +777,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -811,7 +810,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -844,7 +843,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -881,7 +880,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -918,7 +917,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -971,7 +970,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44050</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1004,7 +1003,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1037,7 +1036,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1070,7 +1069,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1107,7 +1106,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1144,7 +1143,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1197,7 +1196,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44050</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1230,7 +1229,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1263,7 +1262,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1296,7 +1295,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,7 +1332,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1370,7 +1369,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1423,7 +1422,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1456,7 +1455,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1489,7 +1488,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1526,7 +1525,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1563,7 +1562,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1616,7 +1615,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1649,7 +1648,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1682,7 +1681,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1719,7 +1718,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1756,7 +1755,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1809,7 +1808,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1842,7 +1841,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1875,7 +1874,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1912,7 +1911,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1949,7 +1948,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2002,7 +2001,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2035,7 +2034,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2068,7 +2067,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2105,7 +2104,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2142,7 +2141,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2195,7 +2194,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2228,7 +2227,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2261,7 +2260,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2298,7 +2297,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2335,7 +2334,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2388,7 +2387,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2421,7 +2420,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2454,7 +2453,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2491,7 +2490,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2528,7 +2527,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2581,7 +2580,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2614,7 +2613,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2647,7 +2646,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2684,7 +2683,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -2721,7 +2720,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2774,7 +2773,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2807,7 +2806,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2840,7 +2839,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2877,7 +2876,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2914,7 +2913,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2967,7 +2966,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3000,7 +2999,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3033,7 +3032,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3070,7 +3069,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3107,7 +3106,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3160,7 +3159,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3193,7 +3192,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3226,7 +3225,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3263,7 +3262,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3300,7 +3299,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3353,7 +3352,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3386,7 +3385,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3419,7 +3418,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3452,7 +3451,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3485,7 +3484,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3522,7 +3521,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3559,7 +3558,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3612,7 +3611,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3645,7 +3644,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3678,7 +3677,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3711,7 +3710,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3744,7 +3743,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3781,7 +3780,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3818,7 +3817,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3871,7 +3870,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3904,7 +3903,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3937,7 +3936,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3970,7 +3969,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4003,7 +4002,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4040,7 +4039,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4077,7 +4076,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -4130,7 +4129,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4163,7 +4162,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4196,7 +4195,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4229,7 +4228,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4262,7 +4261,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4299,7 +4298,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4336,7 +4335,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4389,7 +4388,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4422,7 +4421,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4455,7 +4454,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4488,7 +4487,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4521,7 +4520,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4558,7 +4557,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4595,7 +4594,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4648,7 +4647,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4681,7 +4680,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4714,7 +4713,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4747,7 +4746,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4780,7 +4779,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -4817,7 +4816,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -4854,7 +4853,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -4907,7 +4906,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4940,7 +4939,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4973,7 +4972,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5006,7 +5005,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5039,7 +5038,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5076,7 +5075,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5113,7 +5112,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C123" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01a.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44050</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -687,7 +688,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -724,7 +725,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -777,7 +778,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -810,7 +811,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -843,7 +844,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -880,7 +881,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -917,7 +918,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -970,7 +971,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44050</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1003,7 +1004,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1036,7 +1037,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1069,7 +1070,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,7 +1107,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,7 +1144,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1196,7 +1197,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44050</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1229,7 +1230,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1262,7 +1263,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1295,7 +1296,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1332,7 +1333,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1369,7 +1370,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1422,7 +1423,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1455,7 +1456,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1488,7 +1489,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1525,7 +1526,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1562,7 +1563,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1615,7 +1616,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1648,7 +1649,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1681,7 +1682,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1718,7 +1719,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1755,7 +1756,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1808,7 +1809,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1841,7 +1842,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1874,7 +1875,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1911,7 +1912,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1948,7 +1949,7 @@
           <t>FAR WAA W20-01aMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2001,7 +2002,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2034,7 +2035,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2067,7 +2068,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2104,7 +2105,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2141,7 +2142,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2194,7 +2195,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2227,7 +2228,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2260,7 +2261,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2297,7 +2298,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2334,7 +2335,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2387,7 +2388,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2420,7 +2421,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2453,7 +2454,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2490,7 +2491,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2527,7 +2528,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2580,7 +2581,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2613,7 +2614,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2646,7 +2647,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2683,7 +2684,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -2720,7 +2721,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2773,7 +2774,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2806,7 +2807,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2839,7 +2840,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2876,7 +2877,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2913,7 +2914,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2966,7 +2967,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2999,7 +3000,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3032,7 +3033,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3069,7 +3070,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3106,7 +3107,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3159,7 +3160,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3192,7 +3193,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3225,7 +3226,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3262,7 +3263,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3299,7 +3300,7 @@
           <t>FAR WAA W20-01aMgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3352,7 +3353,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3385,7 +3386,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3418,7 +3419,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3451,7 +3452,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3484,7 +3485,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3521,7 +3522,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3558,7 +3559,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3611,7 +3612,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3644,7 +3645,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3677,7 +3678,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3710,7 +3711,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3743,7 +3744,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3780,7 +3781,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3817,7 +3818,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3870,7 +3871,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3903,7 +3904,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3936,7 +3937,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3969,7 +3970,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4002,7 +4003,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4039,7 +4040,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4076,7 +4077,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -4129,7 +4130,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4162,7 +4163,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4195,7 +4196,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4228,7 +4229,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4261,7 +4262,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4298,7 +4299,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4335,7 +4336,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4388,7 +4389,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4421,7 +4422,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4454,7 +4455,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4487,7 +4488,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4520,7 +4521,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4557,7 +4558,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4594,7 +4595,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4647,7 +4648,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4680,7 +4681,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4713,7 +4714,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4746,7 +4747,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4779,7 +4780,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -4816,7 +4817,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -4853,7 +4854,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -4906,7 +4907,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4939,7 +4940,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44105</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4972,7 +4973,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5005,7 +5006,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5038,7 +5039,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5075,7 +5076,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5112,7 +5113,7 @@
           <t>FAR WAA W20-01aMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C123" t="inlineStr">
